--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Productos</t>
-  </si>
-  <si>
-    <t>Plan de configuración</t>
   </si>
   <si>
     <t>Estrategia de seguimiento</t>
@@ -243,21 +240,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,6 +254,15 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:O17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,233 +631,223 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="E28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F29" s="9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -88,13 +88,37 @@
     <t>Líder de proyecto</t>
   </si>
   <si>
-    <t>Requerimientos de proyecto</t>
-  </si>
-  <si>
-    <t>Plan de estimación</t>
-  </si>
-  <si>
     <t>Plan de proyecto</t>
+  </si>
+  <si>
+    <t>Bimestral</t>
+  </si>
+  <si>
+    <t>Al finalizar etapa de ventas</t>
+  </si>
+  <si>
+    <t>Al finalizar etapa de planeación</t>
+  </si>
+  <si>
+    <t>Al finalizar etapa de cierre</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>Estimación</t>
+  </si>
+  <si>
+    <t>3 días habiles</t>
+  </si>
+  <si>
+    <t>5 días habiles</t>
   </si>
 </sst>
 </file>
@@ -604,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,7 +639,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -663,7 +687,9 @@
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
@@ -673,7 +699,9 @@
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
@@ -683,7 +711,9 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
@@ -693,7 +723,9 @@
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
@@ -703,7 +735,9 @@
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
@@ -713,7 +747,9 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
@@ -723,7 +759,9 @@
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>6</v>
       </c>
@@ -751,9 +789,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>22</v>
       </c>
@@ -761,9 +801,11 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D20" s="8" t="s">
         <v>22</v>
       </c>
@@ -771,9 +813,11 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
@@ -783,7 +827,9 @@
       <c r="B22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>6</v>
       </c>
@@ -819,7 +865,9 @@
       <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="D28" s="13" t="s">
         <v>23</v>
       </c>
@@ -834,7 +882,9 @@
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D29" s="13" t="s">
         <v>23</v>
       </c>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp EliteBook\Documents\Repositorio\SOSQTP\Organización\Calidad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -119,6 +124,9 @@
   </si>
   <si>
     <t>5 días habiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -628,7 +636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,7 +647,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -767,6 +775,11 @@
       </c>
       <c r="E12" s="3"/>
     </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>8</v>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp EliteBook\Documents\Repositorio\SOSQTP\Organización\Calidad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -112,9 +107,6 @@
   </si>
   <si>
     <t>Semestral</t>
-  </si>
-  <si>
-    <t>Requerimientos</t>
   </si>
   <si>
     <t>Estimación</t>
@@ -636,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -777,7 +769,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -801,20 +793,14 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>26</v>
@@ -879,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>23</v>
@@ -896,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>23</v>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>Plan de proyecto</t>
+  </si>
+  <si>
+    <t>Ticket de servicio</t>
+  </si>
+  <si>
+    <t>Reporte de Monitoreo</t>
+  </si>
+  <si>
+    <t>Auditoria física y funcional</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Funcional</t>
   </si>
   <si>
     <t>Estrategia de seguimiento</t>
@@ -172,14 +187,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFD0CECE"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -247,15 +262,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,11 +278,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,7 +290,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,338 +387,327 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F65536"/>
+  <dimension ref="B3:F33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.4962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.3740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.3740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="0"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="0"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="0"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="0"/>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="0"/>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="0"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="0"/>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="0"/>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="0"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="0"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="0"/>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="0"/>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10" t="s">
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="10" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
+      <c r="C32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -171,6 +171,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -257,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,6 +303,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,7 +402,7 @@
   <dimension ref="B3:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -623,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>7</v>
@@ -634,13 +646,15 @@
         <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="10"/>
+    </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
         <v>29</v>
@@ -651,7 +665,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -660,44 +674,44 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="13" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -89,10 +89,25 @@
     <t>Plan de proyecto</t>
   </si>
   <si>
+    <t>Adriana Jaramillo</t>
+  </si>
+  <si>
     <t>Ticket de servicio</t>
   </si>
   <si>
     <t>Reporte de Monitoreo</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>Plan de métricas</t>
+  </si>
+  <si>
+    <t>Anuales</t>
+  </si>
+  <si>
+    <t>Plan de Configuración</t>
   </si>
   <si>
     <t>Auditoria física y funcional</t>
@@ -399,10 +414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F33"/>
+  <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -586,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -604,115 +619,139 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="8"/>
     </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="B25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="7" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="11" t="s">
+      <c r="D31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
+      <c r="E34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="12" t="s">
+      <c r="C35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>36</v>
+      <c r="C36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -720,8 +759,8 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -44,15 +44,18 @@
     <t>Ventas</t>
   </si>
   <si>
+    <t>Al finalizar planeación</t>
+  </si>
+  <si>
+    <t>Planeación</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
     <t>Al finalizar proyecto</t>
   </si>
   <si>
-    <t>Planeación</t>
-  </si>
-  <si>
-    <t>Implementación</t>
-  </si>
-  <si>
     <t>Cierre</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
   </si>
   <si>
     <t>Plan de Configuración</t>
+  </si>
+  <si>
+    <t>Carta de aceptación</t>
   </si>
   <si>
     <t>Auditoria física y funcional</t>
@@ -239,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -254,6 +260,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -280,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,6 +331,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,8 +437,8 @@
   </sheetPr>
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -501,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
@@ -510,10 +531,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -522,10 +543,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -534,24 +555,24 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -559,10 +580,10 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>4</v>
@@ -571,7 +592,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
@@ -581,9 +602,9 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
@@ -598,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>7</v>
@@ -619,10 +640,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>7</v>
@@ -630,32 +651,42 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -663,7 +694,7 @@
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>4</v>
@@ -671,10 +702,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>7</v>
@@ -682,21 +713,21 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="10"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -704,54 +735,54 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="11" t="s">
-        <v>21</v>
+      <c r="B34" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>37</v>
+      <c r="E34" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="B35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="E35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>41</v>
+      <c r="F36" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Semestral</t>
   </si>
   <si>
-    <t>Auditor Externo</t>
+    <t>Adriana Jaramillo</t>
   </si>
   <si>
     <t>  </t>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Plan de proyecto</t>
-  </si>
-  <si>
-    <t>Adriana Jaramillo</t>
   </si>
   <si>
     <t>Ticket de servicio</t>
@@ -437,8 +434,8 @@
   </sheetPr>
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -622,13 +619,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>15</v>
@@ -640,41 +637,41 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>12</v>
@@ -686,7 +683,7 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -702,7 +699,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>12</v>
@@ -713,7 +710,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>12</v>
@@ -727,7 +724,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -739,16 +736,16 @@
         <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,16 +753,16 @@
         <v>21</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="F35" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,16 +770,16 @@
         <v>2</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="F36" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -5,17 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Calidad" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -32,6 +37,15 @@
     <t>Responsable</t>
   </si>
   <si>
+    <t>Planeación anual</t>
+  </si>
+  <si>
+    <t>Anuales</t>
+  </si>
+  <si>
+    <t>Magda Montoya</t>
+  </si>
+  <si>
     <t>Prospectación</t>
   </si>
   <si>
@@ -44,37 +58,25 @@
     <t>Ventas</t>
   </si>
   <si>
-    <t>Planeación</t>
-  </si>
-  <si>
     <t>Implementación</t>
   </si>
   <si>
-    <t>Cierre</t>
-  </si>
-  <si>
     <t>Garantía</t>
   </si>
   <si>
     <t>Calidad</t>
   </si>
   <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Adriana Jaramillo</t>
+    <t>Anual</t>
   </si>
   <si>
     <t>Cambios</t>
   </si>
   <si>
-    <t>Planeación anual</t>
-  </si>
-  <si>
-    <t>Anuales</t>
-  </si>
-  <si>
-    <t>Métricas y Monitoreo</t>
+    <t>Cuando se presente</t>
+  </si>
+  <si>
+    <t>Seguimento</t>
   </si>
   <si>
     <t>  </t>
@@ -89,6 +91,15 @@
     <t>Momento de ejecución</t>
   </si>
   <si>
+    <t>Catalogo de Servicios</t>
+  </si>
+  <si>
+    <t>Plan de proyecto anual</t>
+  </si>
+  <si>
+    <t>Plan de métricas</t>
+  </si>
+  <si>
     <t>Cotización</t>
   </si>
   <si>
@@ -98,19 +109,10 @@
     <t>Ticket de servicio</t>
   </si>
   <si>
-    <t>Carta de aceptación</t>
+    <t>Carta de cierre</t>
   </si>
   <si>
     <t>Reporte de Monitoreo</t>
-  </si>
-  <si>
-    <t>Plan de proyecto anual</t>
-  </si>
-  <si>
-    <t>Catalogo de Servicios</t>
-  </si>
-  <si>
-    <t>Plan de métricas</t>
   </si>
   <si>
     <t>Plan de Configuración</t>
@@ -246,14 +248,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -334,26 +336,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,11 +364,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,19 +451,19 @@
   </sheetPr>
   <dimension ref="B3:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.5953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,399 +495,377 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5"/>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="s">
-        <v>28</v>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="D28" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="E38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="13" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="D39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="F39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="15" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="D40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="F40" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Organización/Calidad/Plan_calidad.xlsx
+++ b/Organización/Calidad/Plan_calidad.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp EliteBook\Documents\Repositorio\SOSQTP\Organización\Calidad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan de Calidad" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Plan de Calidad" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -79,7 +83,7 @@
     <t>Seguimento</t>
   </si>
   <si>
-    <t>  </t>
+    <t/>
   </si>
   <si>
     <t>Auditorias a productos</t>
@@ -158,16 +162,45 @@
   </si>
   <si>
     <t>5 días habiles</t>
+  </si>
+  <si>
+    <t>Checklist_Calidad/Productos</t>
+  </si>
+  <si>
+    <t>Checklist_Calidad/Fisica</t>
+  </si>
+  <si>
+    <t>Checklist_Calidad/Funcional</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_interno/Productos</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_interno/Procesos
+Checklist_organizacional_interno/Funcional
+Checklist_organizacional_interno/Fisica</t>
+  </si>
+  <si>
+    <t>Checklist_Calidad/Procesos, Fisica, Funcional</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_externo/Fisica</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_externo/Funcional</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_externo/Productos</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_externo/Procesos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -176,22 +209,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -199,7 +217,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -207,7 +225,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -259,128 +277,99 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="4">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -439,426 +428,741 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B3:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.5953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.706976744186"/>
+    <col min="1" max="1" width="10.75"/>
+    <col min="2" max="2" width="27.25"/>
+    <col min="3" max="3" width="27.125"/>
+    <col min="4" max="4" width="22"/>
+    <col min="5" max="5" width="37.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="12"/>
+    <col min="7" max="1025" width="10.75"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+      <c r="E7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8" t="s">
+      <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8" t="s">
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8" t="s">
+      <c r="E10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
+      <c r="E11" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
+      <c r="E12" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="s">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="s">
+      <c r="E19" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
+      <c r="E20" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8" t="s">
+      <c r="E21" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="s">
+      <c r="E22" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8" t="s">
+      <c r="E23" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="s">
+      <c r="E24" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="E26" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="s">
+      <c r="E27" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
+      <c r="E28" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="8" t="s">
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="8" t="s">
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="8" t="s">
+      <c r="E34" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="s">
+      <c r="E35" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:D3"/>
@@ -867,12 +1171,7 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B37:F37"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>